--- a/Resultados_Diseno_Estructural.xlsx
+++ b/Resultados_Diseno_Estructural.xlsx
@@ -14,10 +14,6 @@
     <sheet name="Diseño Columna" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Conexiones Secundarias" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Conexiones RBS" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Conexiones End Plate 4E" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Conexiones End Plate 4ES" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Conexiones Diafragma Externo" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Conexiones WUF-W" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -851,788 +847,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sección</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Parámetro</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Izquierda (Valor)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Derecha (Valor)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Chequeo Alma Final</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Rs_alma</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>98.66500000000001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>73.788</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Chequeo Alma Final</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Vu</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26.056</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.458</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Chequeo Patín-Diafragma</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ft_pat_diaf</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>167.791</v>
-      </c>
-      <c r="D4" t="n">
-        <v>181.705</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chequeo Patín-Diafragma</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>L_ext</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>35.723</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40.169</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Chequeo Patín-Diafragma</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R_falt</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>77.12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>86.717</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Chequeo Patín-Diafragma</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Rs_pat_col</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>224.315</v>
-      </c>
-      <c r="D7" t="n">
-        <v>224.315</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Chequeo Patín-Diafragma</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Rs_pat_diaf</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>90.67</v>
-      </c>
-      <c r="D8" t="n">
-        <v>94.988</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Chequeo Patín-Diafragma</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>g_pat_diaf</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Diafragma Externo</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Mbfu</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>67.116</v>
-      </c>
-      <c r="D10" t="n">
-        <v>65.414</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>tonf·m</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Diafragma Externo</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Mbwn</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2.357</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.934</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>tonf·m</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Diafragma Externo</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Mcf_req</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>68.04900000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>58.318</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>tonf·m</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Diafragma Externo</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Mjcf_cap</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>69.474</v>
-      </c>
-      <c r="D13" t="n">
-        <v>67.34699999999999</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>tonf·m</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Diafragma Externo</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Mpl</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>40.266</v>
-      </c>
-      <c r="D14" t="n">
-        <v>33.817</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>tonf·m</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Diafragma Externo</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Pbf</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>167.791</v>
-      </c>
-      <c r="D15" t="n">
-        <v>181.705</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Diafragma Externo</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>hd</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="D16" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sección</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Parámetro</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Izquierda (Valor)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Derecha (Valor)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Calculos Conexion</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mpr</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40.266</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.817</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>tonf·m</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Calculos Conexion</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Vh</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6.505</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.463</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Chequeo Alma</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rs_yield</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35.465</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.457</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chequeo Alma</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rsol</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>149.262</v>
-      </c>
-      <c r="D5" t="n">
-        <v>132.396</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Chequeo Alma</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vh_alma</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6.505</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.463</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Chequeo Alma</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>hh</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Chequeo Alma</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>hp</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Chequeo Patin</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ft</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>134.219</v>
-      </c>
-      <c r="D9" t="n">
-        <v>112.725</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Chequeo Patin</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Rs</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>112.439</v>
-      </c>
-      <c r="D10" t="n">
-        <v>112.439</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Placa-Alma</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Rs</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>31.843</v>
-      </c>
-      <c r="D11" t="n">
-        <v>28.245</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Placa-Alma</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Vu</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>6.505</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5.463</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Propiedades Wuf-W</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Acero</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>36</v>
-      </c>
-      <c r="D13" t="n">
-        <v>36</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Propiedades Wuf-W</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Propiedades Wuf-W</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Propiedades Wuf-W</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -3881,1254 +3095,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sección</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Parámetro</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Izquierda (Valor)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Derecha (Valor)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Chequeo Alma</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Rs</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>131.553</v>
-      </c>
-      <c r="D2" t="n">
-        <v>98.384</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Chequeo Alma</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Vu</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20.133</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.821</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Chequeo Patin</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>80</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chequeo Patin</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ft</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>110.982</v>
-      </c>
-      <c r="D5" t="n">
-        <v>103.095</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Chequeo Patin</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rs</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>118.879</v>
-      </c>
-      <c r="D6" t="n">
-        <v>119.095</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Acero</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>80</v>
-      </c>
-      <c r="D8" t="n">
-        <v>80</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Perno</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Tipo</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A490</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>A490</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>bf</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>16</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>bp</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>41</v>
-      </c>
-      <c r="D14" t="n">
-        <v>37</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>pf</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>tf</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Refuerzo Adicional</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Zp</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>41</v>
-      </c>
-      <c r="D17" t="n">
-        <v>37</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Refuerzo Adicional</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>41.55</v>
-      </c>
-      <c r="D18" t="n">
-        <v>37.125</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Efst</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>113</v>
-      </c>
-      <c r="D19" t="n">
-        <v>113</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Esfv</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>7.046</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6.237</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Estreal</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>77.887</v>
-      </c>
-      <c r="D21" t="n">
-        <v>72.352</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Mf</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>44.393</v>
-      </c>
-      <c r="D22" t="n">
-        <v>37.114</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>tonf·m</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Mpr</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>40.266</v>
-      </c>
-      <c r="D23" t="n">
-        <v>33.817</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>tonf·m</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Sh</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Vu</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>20.133</v>
-      </c>
-      <c r="D25" t="n">
-        <v>17.821</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>tp_min</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>2.179</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2.107</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sección</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Parámetro</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Izquierda (Valor)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Derecha (Valor)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Chequeo Alma Inicial</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Rs</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>131.553</v>
-      </c>
-      <c r="D2" t="n">
-        <v>98.384</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Chequeo Alma Inicial</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Vu</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20.133</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.821</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Chequeo Patin</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>80</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chequeo Patin</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ft</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>110.982</v>
-      </c>
-      <c r="D5" t="n">
-        <v>103.095</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Chequeo Patin</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rs</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>118.879</v>
-      </c>
-      <c r="D6" t="n">
-        <v>119.095</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Acero</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>80</v>
-      </c>
-      <c r="D8" t="n">
-        <v>80</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Perno</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Tipo</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A490</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>A490</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>bf</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>16</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>bp</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>41</v>
-      </c>
-      <c r="D14" t="n">
-        <v>37</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>pf</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Propiedades End Plate</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>tf</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Refuerzo Adicional</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Zp</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>41</v>
-      </c>
-      <c r="D17" t="n">
-        <v>37</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Refuerzo Adicional</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>41.55</v>
-      </c>
-      <c r="D18" t="n">
-        <v>37.125</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Efst</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>113</v>
-      </c>
-      <c r="D19" t="n">
-        <v>113</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Esfv</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>7.046</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6.237</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Estreal</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>77.887</v>
-      </c>
-      <c r="D21" t="n">
-        <v>72.352</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>kgf/cm²</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Mf</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>44.393</v>
-      </c>
-      <c r="D22" t="n">
-        <v>37.114</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>tonf·m</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Mpr</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>40.266</v>
-      </c>
-      <c r="D23" t="n">
-        <v>33.817</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>tonf·m</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Sh</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Vu</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>20.133</v>
-      </c>
-      <c r="D25" t="n">
-        <v>17.821</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>tonf</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Resultados</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>tp_min</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>2.246</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2.107</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>cm</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>